--- a/data/物品和背包表.xlsx
+++ b/data/物品和背包表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\null-kit\excel2conf\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +94,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +212,7 @@
         <sz val="11"/>
         <color rgb="FF626469"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> </t>
     </r>
@@ -292,7 +287,7 @@
     <t>[1,2,3]</t>
   </si>
   <si>
-    <t>[1,2,3|3,4,5]</t>
+    <t>[1,2,3],[3,4,5]</t>
   </si>
   <si>
     <t>背包表</t>
@@ -322,6 +317,9 @@
     <t>背包格子扩展表</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>needItems</t>
   </si>
   <si>
@@ -356,17 +354,19 @@
   </si>
   <si>
     <t>不显示物品类型</t>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,9 +409,153 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF626469"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -419,14 +563,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,18 +579,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79989013336588644"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="3" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -475,9 +799,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -519,22 +1085,66 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFFCC"/>
+      <color rgb="00FFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -583,7 +1193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,7 +1228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,22 +1431,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
@@ -851,7 +1462,7 @@
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -870,7 +1481,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" ht="17" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -917,7 +1528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" ht="16.8" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -962,7 +1573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" s="10" customFormat="1" ht="16.8" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +1612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" s="11" customFormat="1" ht="41.25" customHeight="1" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1042,7 +1653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1087,22 +1698,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
@@ -1114,7 +1726,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1740,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" ht="16.8" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1154,7 +1766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" ht="16.8" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1176,7 +1788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" s="10" customFormat="1" ht="16.8" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1196,7 +1808,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" s="11" customFormat="1" ht="41.25" customHeight="1" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1222,7 +1834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1246,30 +1858,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" ht="14" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1280,24 +1893,24 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" ht="16.8" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1312,7 +1925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" ht="16.8" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1321,13 +1934,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" ht="16.8" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1338,13 +1951,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="14" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1353,26 +1966,27 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
@@ -1382,19 +1996,19 @@
     <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" ht="16.8" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1408,13 +2022,13 @@
         <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1432,7 +2046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" ht="16.8" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1444,7 +2058,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" ht="28" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1455,16 +2069,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1476,22 +2090,23 @@
       <c r="F6" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/物品和背包表.xlsx
+++ b/data/物品和背包表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12120"/>
+    <workbookView windowWidth="28800" windowHeight="11780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <t>addGridNum</t>
   </si>
   <si>
-    <t>map&lt;int,int&gt;@InConf?ItemData</t>
+    <t>map&lt;int,int&gt;@MapKeyExist?ItemData</t>
   </si>
   <si>
     <t>消耗物品</t>
@@ -335,7 +335,7 @@
     <t>增加格子数量</t>
   </si>
   <si>
-    <t>21000101:1</t>
+    <t>21000102:1</t>
   </si>
   <si>
     <t>背包页签表</t>
@@ -361,9 +361,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -409,14 +409,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,6 +448,45 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,41 +500,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,24 +515,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,6 +537,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -523,36 +553,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF626469"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
@@ -591,25 +591,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,31 +747,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,121 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,11 +802,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,8 +821,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,36 +883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -888,162 +897,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1439,15 +1439,15 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
@@ -1714,7 +1714,7 @@
       <selection activeCell="A7" sqref="A7:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
@@ -1869,11 +1869,11 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
@@ -1882,7 +1882,7 @@
     <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="16.8" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" ht="14" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +1986,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
@@ -2008,7 +2008,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="16.8" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" ht="28" spans="1:6">
+    <row r="5" ht="31" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -2104,7 +2104,7 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
